--- a/biology/Botanique/Jardins_familiaux_à_Stockholm/Jardins_familiaux_à_Stockholm.xlsx
+++ b/biology/Botanique/Jardins_familiaux_à_Stockholm/Jardins_familiaux_à_Stockholm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_familiaux_%C3%A0_Stockholm</t>
+          <t>Jardins_familiaux_à_Stockholm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'existence de lotissements de jardins à Stockholm est le résultat d'une politique urbaine dont les origines remontent au début du XXe siècle. La paternité de la mise en place de lotissements de jardins familiaux à Stockholm est attribuée à la sociale démocrate et féministe suédoise Anna Lindhagen. Le premier lotissement de jardins familiaux, le lotissement de Söderbrunn dans le quartier de Norra Djurgården, dans le district d'Östermalm, date de 1905 et est aujourd'hui toujours existant.
 Le mouvement pour les jardins familiaux est à l'origine un mouvement allemand, mais dans le cas de Stockholm c'est le modèle danois de Copenhague qui a servi de modèle à la politique de construction de jardins familiaux à Stockholm. Le mouvement a été animé par plusieurs impératifs au cours de l'histoire, impératifs de santé publique, volonté de subvenir à des pénuries de nourriture, ou alternative à la vie citadine et urbaine.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_familiaux_%C3%A0_Stockholm</t>
+          <t>Jardins_familiaux_à_Stockholm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Koloniträdgårdar i Stockholm » (voir la liste des auteurs).
  Portail du jardinage et de l’horticulture   Portail de Stockholm   Portail de l’architecture et de l’urbanisme                   </t>
